--- a/Product details.xlsx
+++ b/Product details.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{77D9B3FA-4E83-4694-8588-18B9C078AA40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="10515" windowHeight="4695" activeTab="3"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="10545" windowHeight="8160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,8 @@
     <sheet name="SO" sheetId="7" r:id="rId7"/>
     <sheet name="Invoice" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -230,13 +232,13 @@
     <t>777777777</t>
   </si>
   <si>
-    <t>Samsung23121</t>
+    <t>Samsung23121s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,6 +308,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -353,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,9 +391,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,6 +443,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -664,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -711,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -746,16 +785,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -844,8 +883,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -853,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -918,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -977,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1049,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
